--- a/PARCIAL II/Fabian.xlsx
+++ b/PARCIAL II/Fabian.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe's\Documents\GitHub\MetodosNumericos\PARCIAL II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\GitHub\MetodosNumericos\PARCIAL II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +155,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -443,7 +449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -873,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,38 +1003,32 @@
         <v>1.0011999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6">
-        <f t="shared" ref="C6:G6" si="4">-EXP(-10/(H2+273))*H3</f>
-        <v>-0.96713828910670663</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <f>-EXP(-10/(B2+273))*B3</f>
+        <f t="shared" ref="B8:G8" si="4">-EXP(-10/(B2+273))*B3</f>
         <v>-0.96587367724104967</v>
       </c>
       <c r="C8">
-        <f>-EXP(-10/(C2+273))*C3</f>
+        <f t="shared" si="4"/>
         <v>-0.96608632913872772</v>
       </c>
       <c r="D8">
-        <f>-EXP(-10/(D2+273))*D3</f>
+        <f t="shared" si="4"/>
         <v>-0.96629821752490153</v>
       </c>
       <c r="E8">
-        <f>-EXP(-10/(E2+273))*E3</f>
+        <f t="shared" si="4"/>
         <v>-0.96650935013475059</v>
       </c>
       <c r="F8">
-        <f>-EXP(-10/(F2+273))*F3</f>
+        <f t="shared" si="4"/>
         <v>-0.96671973459932914</v>
       </c>
       <c r="G8">
-        <f>-EXP(-10/(G2+273))*G3</f>
+        <f t="shared" si="4"/>
         <v>-0.96692937844731208</v>
       </c>
       <c r="H8">
@@ -1065,51 +1065,51 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <f>1000*EXP(-10/(B2+273))*B3-10*(B2-20)</f>
+        <f t="shared" ref="B9:G9" si="6">1000*EXP(-10/(B2+273))*B3-10*(B2-20)</f>
         <v>1015.8736772410497</v>
       </c>
       <c r="C9">
-        <f>1000*EXP(-10/(C2+273))*C3-10*(C2-20)</f>
+        <f t="shared" si="6"/>
         <v>1006.0863291387276</v>
       </c>
       <c r="D9">
-        <f>1000*EXP(-10/(D2+273))*D3-10*(D2-20)</f>
+        <f t="shared" si="6"/>
         <v>996.29821752490159</v>
       </c>
       <c r="E9">
-        <f>1000*EXP(-10/(E2+273))*E3-10*(E2-20)</f>
+        <f t="shared" si="6"/>
         <v>986.50935013475066</v>
       </c>
       <c r="F9">
-        <f>1000*EXP(-10/(F2+273))*F3-10*(F2-20)</f>
+        <f t="shared" si="6"/>
         <v>976.71973459932906</v>
       </c>
       <c r="G9">
-        <f>1000*EXP(-10/(G2+273))*G3-10*(G2-20)</f>
+        <f t="shared" si="6"/>
         <v>966.92937844731205</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:M9" si="6">1000*EXP(-10/(H2+273))*H3-10*(H2-20)</f>
+        <f t="shared" ref="H9:M9" si="7">1000*EXP(-10/(H2+273))*H3-10*(H2-20)</f>
         <v>957.13828910670668</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>947.34647390652901</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>937.55394007844711</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>927.76069475839211</v>
       </c>
       <c r="L9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>917.96674498813707</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>908.17209771684463</v>
       </c>
       <c r="N9">
